--- a/hahaha.xlsx
+++ b/hahaha.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -11,18 +11,54 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次交钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +82,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +386,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>41805</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>41806</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hahaha.xlsx
+++ b/hahaha.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,12 +30,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第一次交钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经手人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一次交钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>三个人</t>
   </si>
 </sst>
 </file>
@@ -43,8 +50,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -70,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -78,19 +85,248 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -98,6 +334,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A2:D20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="时间" dataDxfId="4"/>
+    <tableColumn id="2" name="金额" dataDxfId="3"/>
+    <tableColumn id="3" name="内容" dataDxfId="2"/>
+    <tableColumn id="4" name="经手人" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +640,7 @@
   <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -401,157 +650,207 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>41805</v>
+      </c>
+      <c r="B3" s="8">
+        <v>300</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>41805</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>41806</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14">
+        <f>SUM(B3:B19)</f>
         <v>300</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>41806</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="2"/>
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>"张翔,罗皓方,安斌,三个人"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A19">
+      <formula1>41791</formula1>
+      <formula2>41821</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/hahaha.xlsx
+++ b/hahaha.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,7 +42,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三个人</t>
+    <t>筷子和肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗皓方</t>
   </si>
 </sst>
 </file>
@@ -232,18 +236,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -311,6 +303,9 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -318,12 +313,21 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -337,13 +341,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A2:D20"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="时间" dataDxfId="4"/>
-    <tableColumn id="2" name="金额" dataDxfId="3"/>
-    <tableColumn id="3" name="内容" dataDxfId="2"/>
-    <tableColumn id="4" name="经手人" dataDxfId="1"/>
+    <tableColumn id="1" name="时间" dataDxfId="3"/>
+    <tableColumn id="2" name="金额" dataDxfId="2"/>
+    <tableColumn id="3" name="内容" dataDxfId="1"/>
+    <tableColumn id="4" name="经手人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +644,7 @@
   <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,82 +679,91 @@
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>41806</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
+        <v>41819</v>
+      </c>
+      <c r="B4" s="4">
+        <f>-13.9-27.1</f>
+        <v>-41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3">
+        <v>41820</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -782,7 +795,7 @@
       </c>
       <c r="B20" s="14">
         <f>SUM(B3:B19)</f>
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -838,8 +851,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"张翔,罗皓方,安斌,三个人"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D15">
+      <formula1>"张翔,罗皓方,安斌"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A19">
       <formula1>41791</formula1>

--- a/hahaha.xlsx
+++ b/hahaha.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,28 @@
   </si>
   <si>
     <t>罗皓方</t>
+  </si>
+  <si>
+    <t>买家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张翔</t>
+  </si>
+  <si>
+    <t>网费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安斌</t>
+  </si>
+  <si>
+    <t>交钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -341,8 +363,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A2:D20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D21" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A2:D21"/>
   <tableColumns count="4">
     <tableColumn id="1" name="时间" dataDxfId="3"/>
     <tableColumn id="2" name="金额" dataDxfId="2"/>
@@ -641,10 +663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,48 +705,81 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
+        <v>41810</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-25.5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>41819</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4">
         <f>-13.9-27.1</f>
         <v>-41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>41819</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-282.5-35.5+90</f>
+        <v>-228</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>41819</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>41819</v>
+      </c>
+      <c r="B8" s="4">
+        <v>300</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>41820</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="9"/>
@@ -769,7 +824,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
@@ -783,26 +838,28 @@
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="14">
-        <f>SUM(B3:B19)</f>
-        <v>259</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="14">
+        <f>SUM(B3:B20)</f>
+        <v>255.5</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
@@ -814,6 +871,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
@@ -847,14 +905,17 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D16">
       <formula1>"张翔,罗皓方,安斌"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A19">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A20">
       <formula1>41791</formula1>
       <formula2>41821</formula2>
     </dataValidation>

--- a/hahaha.xlsx
+++ b/hahaha.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>交钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,7 +670,7 @@
   <dimension ref="A2:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,9 +784,15 @@
       <c r="A9" s="3">
         <v>41820</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="4">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -856,7 +866,7 @@
       </c>
       <c r="B21" s="14">
         <f>SUM(B3:B20)</f>
-        <v>255.5</v>
+        <v>247.3</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
